--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2462103750664649</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.596232352009884</v>
+        <v>-1.60202474237627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1556241716727199</v>
+        <v>0.1497215999678423</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2462103178423753</v>
+        <v>-0.2447260178109888</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2479832052862236</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.527060507705204</v>
+        <v>-1.535332765197199</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1030834134037029</v>
+        <v>0.0989342989999543</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.249490573691166</v>
+        <v>-0.2481180290173917</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2560494013031828</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.480075249924817</v>
+        <v>-1.491860718095556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09849357364599011</v>
+        <v>0.09485286741842162</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2595611480292477</v>
+        <v>-0.2579288902004589</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2590913687097396</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.549539074776499</v>
+        <v>-1.561300932660418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1253132854538325</v>
+        <v>0.1219338664004</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2356313353281134</v>
+        <v>-0.235393658440797</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2546832768520367</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.585145748329002</v>
+        <v>-1.595010913171754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1092441242444738</v>
+        <v>0.1075189992875283</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2616561674796989</v>
+        <v>-0.2610407260032704</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2476088983939784</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.47236963931649</v>
+        <v>-1.48151862545905</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1216080444422907</v>
+        <v>0.1210461196159864</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2534098813032046</v>
+        <v>-0.2528998991079032</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2440436479138705</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.259277356655681</v>
+        <v>-1.265909486223282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1569841241935237</v>
+        <v>0.1584448139380907</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2599483567330877</v>
+        <v>-0.2587284919140797</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2450854472937518</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.004630969192535</v>
+        <v>-1.007014034142184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779358927171571</v>
+        <v>0.1806211693380961</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2576628809689591</v>
+        <v>-0.2557992423293391</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2477027381009493</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5932642198788427</v>
+        <v>-0.593616800162014</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1662897252386533</v>
+        <v>0.1698674707013698</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1651609252483603</v>
+        <v>-0.1646178886515116</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2469636074615496</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2222317105484806</v>
+        <v>-0.2193370893844087</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1361614252378369</v>
+        <v>0.1397250045284616</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1298352141090089</v>
+        <v>-0.1285586846016341</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2358167612755949</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2380398128640239</v>
+        <v>0.2424108639638759</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1028724948414486</v>
+        <v>0.1037523715302557</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03916699066472544</v>
+        <v>-0.03859562172369329</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2059892135256907</v>
       </c>
       <c r="E13" t="n">
-        <v>0.760927390940991</v>
+        <v>0.7680089029677228</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.004324503395613414</v>
+        <v>-0.006183419977869527</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05456427398960922</v>
+        <v>0.05526786053683062</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1522247217863806</v>
       </c>
       <c r="E14" t="n">
-        <v>1.304659704241343</v>
+        <v>1.313494673569204</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2296453406098069</v>
+        <v>-0.2299853287400078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1585282369515197</v>
+        <v>0.1592774700532588</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07526671571044299</v>
       </c>
       <c r="E15" t="n">
-        <v>1.86579909500416</v>
+        <v>1.875134602412594</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4410644409446727</v>
+        <v>-0.4417979338551988</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2922238470956788</v>
+        <v>0.2928660468971694</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0210552165228851</v>
       </c>
       <c r="E16" t="n">
-        <v>2.336213597634326</v>
+        <v>2.347785786214128</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6644618267926367</v>
+        <v>-0.6669267407365935</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4368762043432119</v>
+        <v>0.4369816636243391</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1287359482810503</v>
       </c>
       <c r="E17" t="n">
-        <v>2.790042660783347</v>
+        <v>2.803668944316447</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8761445753303203</v>
+        <v>-0.8810728291991128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5557052038866861</v>
+        <v>0.5561522253171355</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2384529934358675</v>
       </c>
       <c r="E18" t="n">
-        <v>3.212687257101158</v>
+        <v>3.226984072779933</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.204495982167493</v>
+        <v>-1.209061424628826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6768905100547473</v>
+        <v>0.6777121480360663</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3458458465812104</v>
       </c>
       <c r="E19" t="n">
-        <v>3.587014188452402</v>
+        <v>3.601298411978207</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.502862324743887</v>
+        <v>-1.508478424968688</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8380952523818785</v>
+        <v>0.8386225487875143</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4495110892293653</v>
       </c>
       <c r="E20" t="n">
-        <v>3.708237271079375</v>
+        <v>3.727769274355595</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.839266413405634</v>
+        <v>-1.84402860825713</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014804083053822</v>
+        <v>1.014597886548931</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5486928241905333</v>
       </c>
       <c r="E21" t="n">
-        <v>3.957769670417416</v>
+        <v>3.977961187705461</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.075862736595265</v>
+        <v>-2.080654837810065</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183124965828353</v>
+        <v>1.182172684259966</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6411703667278636</v>
       </c>
       <c r="E22" t="n">
-        <v>4.162884824171472</v>
+        <v>4.1828607008399</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.373087915308717</v>
+        <v>-2.375690555925787</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323379513650972</v>
+        <v>1.3224209360061</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.725192576356899</v>
       </c>
       <c r="E23" t="n">
-        <v>4.389055631711168</v>
+        <v>4.407581836768877</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.504300510289024</v>
+        <v>-2.508074221132342</v>
       </c>
       <c r="G23" t="n">
-        <v>1.495454432029806</v>
+        <v>1.49306349698455</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.801052350245307</v>
       </c>
       <c r="E24" t="n">
-        <v>4.516810893691538</v>
+        <v>4.535359135016946</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.618674248709656</v>
+        <v>-2.623035855694781</v>
       </c>
       <c r="G24" t="n">
-        <v>1.599566352789119</v>
+        <v>1.596879502149058</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8694294033299704</v>
       </c>
       <c r="E25" t="n">
-        <v>4.659121110486576</v>
+        <v>4.675878118051943</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.816602431155854</v>
+        <v>-2.8183275561128</v>
       </c>
       <c r="G25" t="n">
-        <v>1.662786830796161</v>
+        <v>1.660060629678068</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9298640696075678</v>
       </c>
       <c r="E26" t="n">
-        <v>4.774106355335834</v>
+        <v>4.788505482257492</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.906781134653413</v>
+        <v>-2.908173354566204</v>
       </c>
       <c r="G26" t="n">
-        <v>1.706330495767823</v>
+        <v>1.702999871307151</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9803044760475554</v>
       </c>
       <c r="E27" t="n">
-        <v>4.887182314990954</v>
+        <v>4.897440197604471</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980416897186102</v>
+        <v>-2.980386990822797</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75739482410106</v>
+        <v>1.753083585727818</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.018722161872134</v>
       </c>
       <c r="E28" t="n">
-        <v>4.887703315320104</v>
+        <v>4.89638717881232</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.071022946875094</v>
+        <v>-3.068875197784079</v>
       </c>
       <c r="G28" t="n">
-        <v>1.79947150325167</v>
+        <v>1.793658650636707</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.044342708637255</v>
       </c>
       <c r="E29" t="n">
-        <v>4.898318500274157</v>
+        <v>4.904419398388318</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.085803773433668</v>
+        <v>-3.082137095890598</v>
       </c>
       <c r="G29" t="n">
-        <v>1.730060408040552</v>
+        <v>1.725174652688035</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.056786673927884</v>
       </c>
       <c r="E30" t="n">
-        <v>4.840189974124522</v>
+        <v>4.84597134635706</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.076044854881604</v>
+        <v>-3.071711580240663</v>
       </c>
       <c r="G30" t="n">
-        <v>1.693944539302308</v>
+        <v>1.68898480505109</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.055281525878845</v>
       </c>
       <c r="E31" t="n">
-        <v>4.715653581247212</v>
+        <v>4.720265457272623</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.066162375828517</v>
+        <v>-3.059577466834556</v>
       </c>
       <c r="G31" t="n">
-        <v>1.635271402536704</v>
+        <v>1.630195190870509</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.039573255243983</v>
       </c>
       <c r="E32" t="n">
-        <v>4.636925866857116</v>
+        <v>4.63902560836493</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.027753161230538</v>
+        <v>-3.020502442148266</v>
       </c>
       <c r="G32" t="n">
-        <v>1.597919928788238</v>
+        <v>1.592546227508118</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.010716649165883</v>
       </c>
       <c r="E33" t="n">
-        <v>4.561253323581464</v>
+        <v>4.559843002448778</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.958877232520662</v>
+        <v>-2.951313283633252</v>
       </c>
       <c r="G33" t="n">
-        <v>1.569744986516956</v>
+        <v>1.562764211713987</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9696185658422221</v>
       </c>
       <c r="E34" t="n">
-        <v>4.3584283676489</v>
+        <v>4.357450901774572</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.887443522738673</v>
+        <v>-2.878813175896582</v>
       </c>
       <c r="G34" t="n">
-        <v>1.519804507836328</v>
+        <v>1.512197273423082</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9185532415446849</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133880373823264</v>
+        <v>4.132529865417188</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.856687976118019</v>
+        <v>-2.846713416946336</v>
       </c>
       <c r="G35" t="n">
-        <v>1.398005334210959</v>
+        <v>1.391436952417771</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8600601980836756</v>
       </c>
       <c r="E36" t="n">
-        <v>3.984011717207741</v>
+        <v>3.980778681932589</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.832043558735814</v>
+        <v>-2.821219029238629</v>
       </c>
       <c r="G36" t="n">
-        <v>1.372407061241246</v>
+        <v>1.364634554820263</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7960537647732864</v>
       </c>
       <c r="E37" t="n">
-        <v>3.788814457937</v>
+        <v>3.784489053391666</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.768175371860357</v>
+        <v>-2.757484633988482</v>
       </c>
       <c r="G37" t="n">
-        <v>1.284768824605466</v>
+        <v>1.277803789993711</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7282199752547206</v>
       </c>
       <c r="E38" t="n">
-        <v>3.721145801893162</v>
+        <v>3.713681803219954</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.737803098895738</v>
+        <v>-2.725846849650338</v>
       </c>
       <c r="G38" t="n">
-        <v>1.242498541102937</v>
+        <v>1.234256976983806</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6581761403910532</v>
       </c>
       <c r="E39" t="n">
-        <v>3.511809128855777</v>
+        <v>3.503095359000257</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.75624745495914</v>
+        <v>-2.742806905682353</v>
       </c>
       <c r="G39" t="n">
-        <v>1.167356442271163</v>
+        <v>1.158987382603207</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5878190534675948</v>
       </c>
       <c r="E40" t="n">
-        <v>3.266336124831571</v>
+        <v>3.257062004168867</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.722432802176237</v>
+        <v>-2.707604755044024</v>
       </c>
       <c r="G40" t="n">
-        <v>1.103248217479707</v>
+        <v>1.094847677429325</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5182386908594055</v>
       </c>
       <c r="E41" t="n">
-        <v>3.094816835202556</v>
+        <v>3.084807647610205</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.661644970721165</v>
+        <v>-2.64686257014347</v>
       </c>
       <c r="G41" t="n">
-        <v>1.071530158166377</v>
+        <v>1.062780185871067</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4500794543549161</v>
       </c>
       <c r="E42" t="n">
-        <v>2.982896205582471</v>
+        <v>2.969775182187308</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.630909886349087</v>
+        <v>-2.615908697113531</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9871202347483851</v>
+        <v>0.9787983956540683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3827116244559924</v>
       </c>
       <c r="E43" t="n">
-        <v>2.850566844035601</v>
+        <v>2.83582615496462</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.614805309709499</v>
+        <v>-2.598762906825203</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9349572410684803</v>
+        <v>0.9267298431214416</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3143226418603403</v>
       </c>
       <c r="E44" t="n">
-        <v>2.723480540181783</v>
+        <v>2.706267067071239</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.542503528382113</v>
+        <v>-2.527306373765955</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8710221583803677</v>
+        <v>0.8625775457945895</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2428290158469157</v>
       </c>
       <c r="E45" t="n">
-        <v>2.526748612267774</v>
+        <v>2.509739761642999</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.476896050377619</v>
+        <v>-2.46201291257616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8413881003836396</v>
+        <v>0.8323847110097997</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1678920764728417</v>
       </c>
       <c r="E46" t="n">
-        <v>2.401744735711437</v>
+        <v>2.383368062470252</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.437898152628272</v>
+        <v>-2.422209117036708</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7779614258717071</v>
+        <v>0.7691327526203315</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09097124420438304</v>
       </c>
       <c r="E47" t="n">
-        <v>2.238744037566902</v>
+        <v>2.220249312891619</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.301489720528552</v>
+        <v>-2.287718627236292</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7215454325260479</v>
+        <v>0.712830088651406</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.01475262243337119</v>
       </c>
       <c r="E48" t="n">
-        <v>2.151771611019432</v>
+        <v>2.131751661815609</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.261237329539529</v>
+        <v>-2.246478539248653</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6729491661750104</v>
+        <v>0.664063828235268</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.05866969510180442</v>
       </c>
       <c r="E49" t="n">
-        <v>1.998937502379379</v>
+        <v>1.978269057297579</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.209447378391373</v>
+        <v>-2.194534334226609</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5985452823111269</v>
+        <v>0.589652074275778</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1281206134047485</v>
       </c>
       <c r="E50" t="n">
-        <v>1.906090836471215</v>
+        <v>1.884783339626167</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.162037135448235</v>
+        <v>-2.147096545948849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5416098626554384</v>
+        <v>0.5330676608841396</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1931355019857281</v>
       </c>
       <c r="E51" t="n">
-        <v>1.78215414487912</v>
+        <v>1.760834055881102</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.112264289804025</v>
+        <v>-2.09694908375377</v>
       </c>
       <c r="G51" t="n">
-        <v>0.496342646745952</v>
+        <v>0.4881703394681588</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2532720990548968</v>
       </c>
       <c r="E52" t="n">
-        <v>1.670616001905511</v>
+        <v>1.649083420326117</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.992435788118526</v>
+        <v>-1.979731092780947</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4608847180004114</v>
+        <v>0.4525093622559704</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3079990841564726</v>
       </c>
       <c r="E53" t="n">
-        <v>1.628334700269132</v>
+        <v>1.605275320142076</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.93299846506953</v>
+        <v>-1.920130071743336</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3890197269791859</v>
+        <v>0.3816139670134661</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3577423299637248</v>
       </c>
       <c r="E54" t="n">
-        <v>1.586555510732447</v>
+        <v>1.561171304363231</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.923112837978201</v>
+        <v>-1.909464518177402</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3545675964521564</v>
+        <v>0.3473381266280223</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4038249890208077</v>
       </c>
       <c r="E55" t="n">
-        <v>1.53263433769405</v>
+        <v>1.5056367617255</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.857282636268042</v>
+        <v>-1.844793581550082</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3278328816768643</v>
+        <v>0.320320088410896</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.44756610542634</v>
       </c>
       <c r="E56" t="n">
-        <v>1.475124401059086</v>
+        <v>1.447550734092141</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.794574501484983</v>
+        <v>-1.783435955173099</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2189674231712234</v>
+        <v>0.2136645527515614</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4898385827620929</v>
       </c>
       <c r="E57" t="n">
-        <v>1.486562798013578</v>
+        <v>1.456390425477366</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.792402355097588</v>
+        <v>-1.781021409841024</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2203871884186367</v>
+        <v>0.2141524986791647</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5308332609746259</v>
       </c>
       <c r="E58" t="n">
-        <v>1.472996327207088</v>
+        <v>1.440755693545486</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.777205987490991</v>
+        <v>-1.766321645267197</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2161625210970656</v>
+        <v>0.2095311785390258</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.570875541860958</v>
       </c>
       <c r="E59" t="n">
-        <v>1.462182815843752</v>
+        <v>1.428569637508376</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.739922983574302</v>
+        <v>-1.730250636073909</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1415666069003834</v>
+        <v>0.1359379145226122</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6101577712907613</v>
       </c>
       <c r="E60" t="n">
-        <v>1.497160668757296</v>
+        <v>1.460512781556052</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.772838871438942</v>
+        <v>-1.762328358756457</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1215324915244683</v>
+        <v>0.1156236237431055</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.64875265938855</v>
       </c>
       <c r="E61" t="n">
-        <v>1.496044689200294</v>
+        <v>1.457541033455036</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.791245451043432</v>
+        <v>-1.78067748666302</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1344457443956191</v>
+        <v>0.1276774621740262</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.686466273997358</v>
       </c>
       <c r="E62" t="n">
-        <v>1.508542401023421</v>
+        <v>1.467405411288228</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.835641447369279</v>
+        <v>-1.824215642567757</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04610549523173933</v>
+        <v>0.04062318663224903</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7232023737705039</v>
       </c>
       <c r="E63" t="n">
-        <v>1.496307550393551</v>
+        <v>1.453317940152587</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.795757376854641</v>
+        <v>-1.785550649862566</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01159512599722174</v>
+        <v>0.006518914331027024</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7588934573887345</v>
       </c>
       <c r="E64" t="n">
-        <v>1.498761446203659</v>
+        <v>1.454331608466704</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.823353080089284</v>
+        <v>-1.813034597739598</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01880547931157974</v>
+        <v>-0.02366605035815627</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7929266908051306</v>
       </c>
       <c r="E65" t="n">
-        <v>1.510893985590644</v>
+        <v>1.463530176211586</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.848838023682264</v>
+        <v>-1.838496718055318</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02160723334749497</v>
+        <v>-0.0269557503216747</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8241460003531074</v>
       </c>
       <c r="E66" t="n">
-        <v>1.474066660209572</v>
+        <v>1.427286811924516</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.853676558461142</v>
+        <v>-1.844012081056356</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02986453765783837</v>
+        <v>-0.03534212419996477</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.851397885026546</v>
       </c>
       <c r="E67" t="n">
-        <v>1.440524312734655</v>
+        <v>1.392368771737581</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.864997690991097</v>
+        <v>-1.856058836401231</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.04900303615373344</v>
+        <v>-0.05436886733824748</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8731818054540509</v>
       </c>
       <c r="E68" t="n">
-        <v>1.390670405105698</v>
+        <v>1.342174875978424</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.894444440712391</v>
+        <v>-1.88621468173667</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05632222506778164</v>
+        <v>-0.06158102295204723</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8883064359792493</v>
       </c>
       <c r="E69" t="n">
-        <v>1.285478707229173</v>
+        <v>1.239081345590593</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.915659070429281</v>
+        <v>-1.907728375086608</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07860718778715678</v>
+        <v>-0.08388644791999927</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8957746031704198</v>
       </c>
       <c r="E70" t="n">
-        <v>1.303142349808409</v>
+        <v>1.255057639671795</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.920169422221368</v>
+        <v>-1.913264987345783</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04679153928830597</v>
+        <v>-0.05300419276007978</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.894861448720916</v>
       </c>
       <c r="E71" t="n">
-        <v>1.295909731946033</v>
+        <v>1.247903722765483</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.953841626273793</v>
+        <v>-1.948049235907407</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06640224352059124</v>
+        <v>-0.07273767048382651</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8851010495704945</v>
       </c>
       <c r="E72" t="n">
-        <v>1.279662706575967</v>
+        <v>1.231529201846592</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.983120742958668</v>
+        <v>-1.977525104982444</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1018727644191022</v>
+        <v>-0.107540807274906</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8671459370309154</v>
       </c>
       <c r="E73" t="n">
-        <v>1.284630310922792</v>
+        <v>1.236304775860618</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.982685526671628</v>
+        <v>-1.97736298101295</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08896580762443659</v>
+        <v>-0.09497856066780523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8423654551038251</v>
       </c>
       <c r="E74" t="n">
-        <v>1.279270775814763</v>
+        <v>1.23092163046577</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.990181792736823</v>
+        <v>-1.985617137285051</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06926538430223719</v>
+        <v>-0.07616903216826201</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8125868518805873</v>
       </c>
       <c r="E75" t="n">
-        <v>1.222360540465016</v>
+        <v>1.175901792080704</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.022922177469438</v>
+        <v>-2.018349651922059</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04099127882631293</v>
+        <v>-0.04833722606542325</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7793719071220607</v>
       </c>
       <c r="E76" t="n">
-        <v>1.257324227206468</v>
+        <v>1.211630452115109</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.025542919306404</v>
+        <v>-2.022034430685024</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02079346546178251</v>
+        <v>-0.02859430422694872</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7438215889849891</v>
       </c>
       <c r="E77" t="n">
-        <v>1.190012873503165</v>
+        <v>1.147404175889555</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.02305754311387</v>
+        <v>-2.019517574110064</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02266182615876643</v>
+        <v>-0.03008804837306307</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7066226057515271</v>
       </c>
       <c r="E78" t="n">
-        <v>1.208545374637359</v>
+        <v>1.167726336764669</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.033529492327883</v>
+        <v>-2.030205163943696</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01761709487499772</v>
+        <v>-0.02483554656528268</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6680112142564226</v>
       </c>
       <c r="E79" t="n">
-        <v>1.19269342806674</v>
+        <v>1.154633645713689</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.010677095715279</v>
+        <v>-2.006960836569888</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.03963290032463044</v>
+        <v>-0.04629257522685365</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6270196323957001</v>
       </c>
       <c r="E80" t="n">
-        <v>1.168653434027115</v>
+        <v>1.135007201290191</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.972095526023517</v>
+        <v>-1.969096232587879</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02346300189150848</v>
+        <v>-0.0299227763653265</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5820372726971021</v>
       </c>
       <c r="E81" t="n">
-        <v>1.191449952960913</v>
+        <v>1.160559827705387</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.92490249771912</v>
+        <v>-1.922577671476958</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.003891648137255725</v>
+        <v>-0.009976806060204183</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5316569527613112</v>
       </c>
       <c r="E82" t="n">
-        <v>1.249200714521435</v>
+        <v>1.219787019201689</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.954280777608636</v>
+        <v>-1.950204068084467</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02406607949528709</v>
+        <v>0.0176787099010489</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4756070889775086</v>
       </c>
       <c r="E83" t="n">
-        <v>1.334671526827183</v>
+        <v>1.30728202009743</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.84874909160191</v>
+        <v>-1.845870997638612</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01587330996891701</v>
+        <v>0.01048229447846216</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4144470985297637</v>
       </c>
       <c r="E84" t="n">
-        <v>1.325751560466772</v>
+        <v>1.303018002297827</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.788166669642168</v>
+        <v>-1.784876182669089</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02609656416176498</v>
+        <v>0.0211037755089992</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3495484118328073</v>
       </c>
       <c r="E85" t="n">
-        <v>1.433326323292947</v>
+        <v>1.41257602921684</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.761330430633552</v>
+        <v>-1.756410046860366</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01920865648695317</v>
+        <v>0.01521064791884942</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2832668966193664</v>
       </c>
       <c r="E86" t="n">
-        <v>1.678519151913561</v>
+        <v>1.65750914468244</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.656836810237324</v>
+        <v>-1.651999849477567</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03457265712996918</v>
+        <v>0.03132702970184716</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2195753173203883</v>
       </c>
       <c r="E87" t="n">
-        <v>1.60826910451079</v>
+        <v>1.593882569742102</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53758439955022</v>
+        <v>-1.531930522866508</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05514980910273307</v>
+        <v>0.05226620607251022</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.161997900333782</v>
       </c>
       <c r="E88" t="n">
-        <v>1.755546925652653</v>
+        <v>1.741333532987308</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.337118898280486</v>
+        <v>-1.332454292614511</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09176936395979357</v>
+        <v>0.08897233198124226</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1140486019546901</v>
       </c>
       <c r="E89" t="n">
-        <v>1.922613315187508</v>
+        <v>1.90886898022031</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.161449707238162</v>
+        <v>-1.157820806154003</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1154709438883393</v>
+        <v>0.1126928001392436</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07886253986927104</v>
       </c>
       <c r="E90" t="n">
-        <v>1.94134886478835</v>
+        <v>1.930834417058062</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9202068796024512</v>
+        <v>-0.9179528842207485</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1443888231848756</v>
+        <v>0.1414784618295906</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0590165971517982</v>
       </c>
       <c r="E91" t="n">
-        <v>1.979101713412747</v>
+        <v>1.96950806686842</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6671927499680934</v>
+        <v>-0.6663034291645584</v>
       </c>
       <c r="G91" t="n">
-        <v>0.096393832138175</v>
+        <v>0.09508110019101022</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05545642847365467</v>
       </c>
       <c r="E92" t="n">
-        <v>1.995408551509422</v>
+        <v>1.984971230716077</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4616573331086495</v>
+        <v>-0.4611174445500434</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1078967638766404</v>
+        <v>0.1062125634168487</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06671743452240633</v>
       </c>
       <c r="E93" t="n">
-        <v>1.968631338217855</v>
+        <v>1.958474192828102</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2404116313995036</v>
+        <v>-0.2407531935488258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09266025878244977</v>
+        <v>0.09155372334017538</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08874307078213689</v>
       </c>
       <c r="E94" t="n">
-        <v>1.855139837514711</v>
+        <v>1.846237185364635</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0571643252976775</v>
+        <v>-0.05776087854465047</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06730123671917439</v>
+        <v>0.06632377084484666</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1154757931976107</v>
       </c>
       <c r="E95" t="n">
-        <v>1.803623765693661</v>
+        <v>1.795087859998848</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07369490238989777</v>
+        <v>0.07362407152943924</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05526943455595193</v>
+        <v>0.05368754533904473</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1405850749988282</v>
       </c>
       <c r="E96" t="n">
-        <v>1.67493511037436</v>
+        <v>1.66733574605672</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1465310632089658</v>
+        <v>0.1469481782761105</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004803005208488823</v>
+        <v>-0.005569552520562258</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1605181910080854</v>
       </c>
       <c r="E97" t="n">
-        <v>1.507690856678798</v>
+        <v>1.502436780851896</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1494099441818248</v>
+        <v>0.1516277371237374</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02004423236004338</v>
+        <v>-0.02079346546178251</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1788741642791305</v>
       </c>
       <c r="E98" t="n">
-        <v>1.393465863065128</v>
+        <v>1.389153050672764</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1776761795621425</v>
+        <v>0.1795539843738542</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05815123528673304</v>
+        <v>-0.0589775953254159</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.200779408730794</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252647816397083</v>
+        <v>1.250072721114635</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1804196948905696</v>
+        <v>0.1826894304634852</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09814391312074092</v>
+        <v>-0.09845084684939455</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2325165439560473</v>
       </c>
       <c r="E100" t="n">
-        <v>1.092560627646076</v>
+        <v>1.091383261343343</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2377911178428584</v>
+        <v>0.237967407984444</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1458256743623026</v>
+        <v>-0.1453629127406403</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2689804503867705</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9087246383928831</v>
+        <v>0.9106496637782338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2195324960357704</v>
+        <v>0.2201983061240806</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1716332918751487</v>
+        <v>-0.1710650709723592</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3101208335599782</v>
       </c>
       <c r="E102" t="n">
-        <v>0.849566703737918</v>
+        <v>0.8503883417192369</v>
       </c>
       <c r="F102" t="n">
-        <v>0.258287994840436</v>
+        <v>0.2580802243164242</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2098016815475691</v>
+        <v>-0.2089957837574631</v>
       </c>
     </row>
   </sheetData>
